--- a/REGULAR/CENRO/MACAPUNO, FELIX.xlsx
+++ b/REGULAR/CENRO/MACAPUNO, FELIX.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>3/7,18,22,25/2022</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/19,20/2023</t>
   </si>
 </sst>
 </file>
@@ -961,7 +967,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K140" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1290,12 +1296,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K140"/>
+  <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="3645" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="I93" sqref="I93"/>
+      <selection pane="bottomLeft" activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1460,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>290.37299999999999</v>
+        <v>292.12299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1464,7 +1470,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>171.125</v>
+        <v>172.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3307,13 +3313,15 @@
         <v>45170</v>
       </c>
       <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
@@ -3324,45 +3332,65 @@
       <c r="A95" s="40">
         <v>45200</v>
       </c>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
+      <c r="B95" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H95" s="39">
+        <v>1</v>
+      </c>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="49">
+        <v>45212</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45231</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="49">
+        <v>45260</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45261</v>
       </c>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
+      <c r="D97" s="39">
+        <v>2</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
@@ -3372,11 +3400,13 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
-        <v>45292</v>
+      <c r="A98" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3394,7 +3424,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3412,7 +3442,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3430,7 +3460,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3448,7 +3478,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3466,7 +3496,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3484,7 +3514,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3502,7 +3532,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3520,7 +3550,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3538,7 +3568,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3556,7 +3586,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3574,7 +3604,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3592,7 +3622,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3610,7 +3640,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3628,7 +3658,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3646,7 +3676,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3664,7 +3694,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3682,7 +3712,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3700,7 +3730,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3718,7 +3748,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3736,7 +3766,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3754,7 +3784,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3772,7 +3802,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3790,7 +3820,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3808,7 +3838,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3826,7 +3856,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3844,7 +3874,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3862,7 +3892,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3880,7 +3910,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3898,7 +3928,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3916,7 +3946,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3934,7 +3964,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3952,7 +3982,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3970,7 +4000,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3988,7 +4018,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4006,7 +4036,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4024,7 +4054,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4042,7 +4072,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4060,7 +4090,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4078,7 +4108,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4096,7 +4126,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4114,7 +4144,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4132,21 +4162,39 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
+        <v>46539</v>
+      </c>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
         <v>46569</v>
       </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="41"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H140" s="42"/>
-      <c r="I140" s="9"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="15"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="42"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="12"/>
+      <c r="K141" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
